--- a/biology/Botanique/Helichrysum_mannii/Helichrysum_mannii.xlsx
+++ b/biology/Botanique/Helichrysum_mannii/Helichrysum_mannii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helichrysum mannii Hook.f. est une espèce de plantes à fleurs de la famille des Asteraceae et du genre Helichrysum, présente en Afrique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique mannii rend hommage au botaniste allemand Gustav Mann[2], qui  collecta plusieurs spécimens[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique mannii rend hommage au botaniste allemand Gustav Mann, qui  collecta plusieurs spécimens.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe robuste, d'une hauteur comprise entre 30 et 60 cm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe robuste, d'une hauteur comprise entre 30 et 60 cm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Assez proche de Helichrysum cameroonense, on la trouve cependant à des altitudes un peu plus élevées, entre 2 400 et 4 000 m, dans des zones de transition entre forêt et prairie montagnardes[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assez proche de Helichrysum cameroonense, on la trouve cependant à des altitudes un peu plus élevées, entre 2 400 et 4 000 m, dans des zones de transition entre forêt et prairie montagnardes.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Subendémique du Cameroun, relativement rare, elle a été récoltée à de nombreuses reprises sur le mont Cameroun, également en Guinée équatoriale sur l'île de Bioko[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Subendémique du Cameroun, relativement rare, elle a été récoltée à de nombreuses reprises sur le mont Cameroun, également en Guinée équatoriale sur l'île de Bioko.
 </t>
         </is>
       </c>
